--- a/1des/sop/aula06/Nutricao.xlsx
+++ b/1des/sop/aula06/Nutricao.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\sop\aula06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F999F1-380D-4CDB-AB67-EDDBCF9A528F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0477B0BF-2C05-4836-B1DA-54B9D4EDDCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E2DDA6B-5FAB-421F-86C3-2474C686EBC6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="programa" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Nome</t>
   </si>
@@ -44,12 +44,6 @@
     <t>Altura</t>
   </si>
   <si>
-    <t>IMC</t>
-  </si>
-  <si>
-    <t>Diagnóstico</t>
-  </si>
-  <si>
     <t>Jair</t>
   </si>
   <si>
@@ -63,13 +57,70 @@
   </si>
   <si>
     <t>Maria</t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>IMC()</t>
+  </si>
+  <si>
+    <t>Diagnóstico()</t>
+  </si>
+  <si>
+    <t>Mariana</t>
+  </si>
+  <si>
+    <t>Marcela</t>
+  </si>
+  <si>
+    <t>Fabiana</t>
+  </si>
+  <si>
+    <t>Jurema</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Máximo</t>
+  </si>
+  <si>
+    <t>Subpeso severo</t>
+  </si>
+  <si>
+    <t>Subpeso</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Sobrepeso</t>
+  </si>
+  <si>
+    <t>Obeso</t>
+  </si>
+  <si>
+    <t>Obeso Mórbido</t>
+  </si>
+  <si>
+    <t>Mínimo</t>
+  </si>
+  <si>
+    <t>Análise - Estatísticas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,16 +128,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -94,15 +187,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -414,149 +554,368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20344AE-E5F4-4EDF-B910-345ADCC2B47F}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5">
+        <f>COUNTIF($E$3:$E$12,G2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" s="5">
+        <v>85</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1.83</v>
+      </c>
+      <c r="D3" s="9">
+        <f>B3/C3^2</f>
+        <v>25.381468541909282</v>
+      </c>
+      <c r="E3" s="5" t="str">
+        <f>IF(D3&lt;16,"Subpeso severo",IF(D3&lt;20,"Subpeso",IF(D3&lt;25,"Normal",IF(D3&lt;30,"Sobrepeso",IF(D3&lt;40,"Obeso","Obeso Mórbido")))))</f>
+        <v>Sobrepeso</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="6">
+        <f>COUNTIF($E$3:$E$12,G3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B4" s="6">
+        <v>44.4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.62</v>
+      </c>
+      <c r="D4" s="10">
+        <f t="shared" ref="D4:D12" si="0">B4/C4^2</f>
+        <v>16.918152720621851</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f t="shared" ref="E3:G12" si="1">IF(D4&lt;16,"Subpeso severo",IF(D4&lt;20,"Subpeso",IF(D4&lt;25,"Normal",IF(D4&lt;30,"Sobrepeso",IF(D4&lt;40,"Obeso","Obeso Mórbido")))))</f>
+        <v>Subpeso</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="6">
+        <f>COUNTIF($E$3:$E$12,G4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>85</v>
-      </c>
-      <c r="C2">
-        <v>1.83</v>
-      </c>
-      <c r="D2">
-        <f>B2/C2^2</f>
-        <v>25.381468541909282</v>
-      </c>
-      <c r="E2" t="str">
-        <f>IF(D2&lt;16,"Subpeso severo",IF(D2&lt;20,"Subpeso",IF(D2&lt;25,"Normal",IF(D2&lt;30,"Sobrepeso",IF(D2&lt;40,"Obeso","Obeso Mórbido")))))</f>
-        <v>Sobrepeso</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>44.4</v>
-      </c>
-      <c r="C3">
-        <v>1.62</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D7" si="0">B3/C3^2</f>
-        <v>16.918152720621851</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E7" si="1">IF(D3&lt;16,"Subpeso severo",IF(D3&lt;20,"Subpeso",IF(D3&lt;25,"Normal",IF(D3&lt;30,"Sobrepeso",IF(D3&lt;40,"Obeso","Obeso Mórbido")))))</f>
-        <v>Subpeso</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
+      <c r="B5" s="6">
         <v>76</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="6">
         <v>2.04</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="10">
         <f t="shared" si="0"/>
         <v>18.262206843521721</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E5" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Subpeso</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
+      <c r="G5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="6">
+        <f>COUNTIF($E$3:$E$12,G5)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6">
         <v>78.5</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="6">
         <v>1.81</v>
       </c>
-      <c r="D5">
+      <c r="D6" s="10">
         <f t="shared" si="0"/>
         <v>23.961417539147156</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E6" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Normal</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
+      <c r="G6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="6">
+        <f>COUNTIF($E$3:$E$12,G6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6">
         <v>55</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="6">
         <v>1.57</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="10">
         <f t="shared" si="0"/>
         <v>22.313278429145196</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E7" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Normal</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
+      <c r="G7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="6">
+        <f>COUNTIF($E$3:$E$12,G7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6">
         <v>125.5</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="6">
         <v>1.88</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="10">
         <f t="shared" si="0"/>
         <v>35.508148483476688</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E8" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Obeso</v>
       </c>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7">
+        <f>SUM(H2:H7)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6">
+        <v>44</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1.78</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="0"/>
+        <v>13.887135462694104</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Subpeso severo</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6">
+        <v>75</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1.84</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>22.152646502835537</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6">
+        <v>66</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1.65</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>24.242424242424246</v>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7">
+        <v>58</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1.44</v>
+      </c>
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
+        <v>27.970679012345681</v>
+      </c>
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Sobrepeso</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <f>COUNT(B3:B12)</f>
+        <v>10</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <f>AVERAGE(B3:B12)</f>
+        <v>70.739999999999995</v>
+      </c>
+      <c r="C15">
+        <f>AVERAGE(C3:C12)</f>
+        <v>1.746</v>
+      </c>
+      <c r="D15" s="12">
+        <f>AVERAGE(D3:D12)</f>
+        <v>23.059755777812143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <f>MAX(B3:B12)</f>
+        <v>125.5</v>
+      </c>
+      <c r="C16">
+        <f>MAX(C3:C12)</f>
+        <v>2.04</v>
+      </c>
+      <c r="D16" s="12">
+        <f>MAX(D3:D12)</f>
+        <v>35.508148483476688</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <f>MIN(B3:B12)</f>
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:D17" si="2">MIN(C3:C12)</f>
+        <v>1.44</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" si="2"/>
+        <v>13.887135462694104</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1des/sop/aula06/Nutricao.xlsx
+++ b/1des/sop/aula06/Nutricao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\sop\aula06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0477B0BF-2C05-4836-B1DA-54B9D4EDDCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A491494-DE82-4C6E-BA93-3F76BE2A8D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E2DDA6B-5FAB-421F-86C3-2474C686EBC6}"/>
   </bookViews>
@@ -223,12 +223,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -239,6 +233,12 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20344AE-E5F4-4EDF-B910-345ADCC2B47F}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,295 +571,295 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="G1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="5">
-        <f>COUNTIF($E$3:$E$12,G2)</f>
+      <c r="H2" s="3">
+        <f t="shared" ref="H2:H7" si="0">COUNTIF($E$3:$E$12,G2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>85</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>1.83</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <f>B3/C3^2</f>
         <v>25.381468541909282</v>
       </c>
-      <c r="E3" s="5" t="str">
+      <c r="E3" s="3" t="str">
         <f>IF(D3&lt;16,"Subpeso severo",IF(D3&lt;20,"Subpeso",IF(D3&lt;25,"Normal",IF(D3&lt;30,"Sobrepeso",IF(D3&lt;40,"Obeso","Obeso Mórbido")))))</f>
         <v>Sobrepeso</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="6">
-        <f>COUNTIF($E$3:$E$12,G3)</f>
+      <c r="H3" s="4">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>44.4</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>1.62</v>
       </c>
-      <c r="D4" s="10">
-        <f t="shared" ref="D4:D12" si="0">B4/C4^2</f>
+      <c r="D4" s="8">
+        <f t="shared" ref="D4:D12" si="1">B4/C4^2</f>
         <v>16.918152720621851</v>
       </c>
-      <c r="E4" s="6" t="str">
-        <f t="shared" ref="E3:G12" si="1">IF(D4&lt;16,"Subpeso severo",IF(D4&lt;20,"Subpeso",IF(D4&lt;25,"Normal",IF(D4&lt;30,"Sobrepeso",IF(D4&lt;40,"Obeso","Obeso Mórbido")))))</f>
+      <c r="E4" s="4" t="str">
+        <f t="shared" ref="E4:E12" si="2">IF(D4&lt;16,"Subpeso severo",IF(D4&lt;20,"Subpeso",IF(D4&lt;25,"Normal",IF(D4&lt;30,"Sobrepeso",IF(D4&lt;40,"Obeso","Obeso Mórbido")))))</f>
         <v>Subpeso</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="6">
-        <f>COUNTIF($E$3:$E$12,G4)</f>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>76</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>2.04</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
+        <f t="shared" si="1"/>
+        <v>18.262206843521721</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Subpeso</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>18.262206843521721</v>
-      </c>
-      <c r="E5" s="6" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>78.5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.81</v>
+      </c>
+      <c r="D6" s="8">
         <f t="shared" si="1"/>
-        <v>Subpeso</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="6">
-        <f>COUNTIF($E$3:$E$12,G5)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6">
-        <v>78.5</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1.81</v>
-      </c>
-      <c r="D6" s="10">
+        <v>23.961417539147156</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Normal</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>23.961417539147156</v>
-      </c>
-      <c r="E6" s="6" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>55</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.57</v>
+      </c>
+      <c r="D7" s="8">
         <f t="shared" si="1"/>
+        <v>22.313278429145196</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>Normal</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="6">
-        <f>COUNTIF($E$3:$E$12,G6)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6">
-        <v>55</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1.57</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="G7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>22.313278429145196</v>
-      </c>
-      <c r="E7" s="6" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>125.5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.88</v>
+      </c>
+      <c r="D8" s="8">
         <f t="shared" si="1"/>
-        <v>Normal</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="6">
-        <f>COUNTIF($E$3:$E$12,G7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6">
-        <v>125.5</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1.88</v>
-      </c>
-      <c r="D8" s="10">
-        <f t="shared" si="0"/>
         <v>35.508148483476688</v>
       </c>
-      <c r="E8" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="E8" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>Obeso</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <f>SUM(H2:H7)</f>
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>44</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>1.78</v>
       </c>
-      <c r="D9" s="10">
-        <f t="shared" si="0"/>
+      <c r="D9" s="8">
+        <f t="shared" si="1"/>
         <v>13.887135462694104</v>
       </c>
-      <c r="E9" s="6" t="str">
+      <c r="E9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Subpeso severo</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4">
+        <v>75</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1.84</v>
+      </c>
+      <c r="D10" s="8">
         <f t="shared" si="1"/>
-        <v>Subpeso severo</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="6">
-        <v>75</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1.84</v>
-      </c>
-      <c r="D10" s="10">
-        <f t="shared" si="0"/>
         <v>22.152646502835537</v>
       </c>
-      <c r="E10" s="6" t="str">
+      <c r="E10" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>Normal</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4">
+        <v>66</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="D11" s="8">
         <f t="shared" si="1"/>
+        <v>24.242424242424246</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>Normal</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6">
-        <v>66</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1.65</v>
-      </c>
-      <c r="D11" s="10">
-        <f t="shared" si="0"/>
-        <v>24.242424242424246</v>
-      </c>
-      <c r="E11" s="6" t="str">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5">
+        <v>58</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1.44</v>
+      </c>
+      <c r="D12" s="9">
         <f t="shared" si="1"/>
-        <v>Normal</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="7">
-        <v>58</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1.44</v>
-      </c>
-      <c r="D12" s="11">
-        <f t="shared" si="0"/>
         <v>27.970679012345681</v>
       </c>
-      <c r="E12" s="7" t="str">
-        <f t="shared" si="1"/>
+      <c r="E12" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>Sobrepeso</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B14">
         <f>COUNT(B3:B12)</f>
         <v>10</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B15">
@@ -870,13 +870,13 @@
         <f>AVERAGE(C3:C12)</f>
         <v>1.746</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <f>AVERAGE(D3:D12)</f>
         <v>23.059755777812143</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B16">
@@ -887,13 +887,13 @@
         <f>MAX(C3:C12)</f>
         <v>2.04</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <f>MAX(D3:D12)</f>
         <v>35.508148483476688</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B17">
@@ -901,11 +901,11 @@
         <v>44</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:D17" si="2">MIN(C3:C12)</f>
+        <f t="shared" ref="C17:D17" si="3">MIN(C3:C12)</f>
         <v>1.44</v>
       </c>
-      <c r="D17" s="12">
-        <f t="shared" si="2"/>
+      <c r="D17" s="10">
+        <f t="shared" si="3"/>
         <v>13.887135462694104</v>
       </c>
     </row>
@@ -915,7 +915,11 @@
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CRelatório para um(a) Nutricionista e/ou Endocrinologista</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
--- a/1des/sop/aula06/Nutricao.xlsx
+++ b/1des/sop/aula06/Nutricao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\sop\aula06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A491494-DE82-4C6E-BA93-3F76BE2A8D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4C959C-BE84-45A4-8AC0-E5FF5B43BCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E2DDA6B-5FAB-421F-86C3-2474C686EBC6}"/>
   </bookViews>
@@ -557,7 +557,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,7 +866,7 @@
         <f>AVERAGE(B3:B12)</f>
         <v>70.739999999999995</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="10">
         <f>AVERAGE(C3:C12)</f>
         <v>1.746</v>
       </c>

--- a/1des/sop/aula06/Nutricao.xlsx
+++ b/1des/sop/aula06/Nutricao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2022\1des\sop\aula06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4C959C-BE84-45A4-8AC0-E5FF5B43BCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B763A0-B37B-4C1A-B85A-F3329985ED35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2E2DDA6B-5FAB-421F-86C3-2474C686EBC6}"/>
   </bookViews>
@@ -557,7 +557,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +603,7 @@
         <v>18</v>
       </c>
       <c r="H2" s="3">
-        <f t="shared" ref="H2:H7" si="0">COUNTIF($E$3:$E$12,G2)</f>
+        <f>COUNTIF($E$3:$E$12,G2)</f>
         <v>1</v>
       </c>
     </row>
@@ -629,7 +629,7 @@
         <v>19</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H2:H7" si="0">COUNTIF($E$3:$E$12,G3)</f>
         <v>2</v>
       </c>
     </row>
